--- a/data.xlsx
+++ b/data.xlsx
@@ -834,9 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1710,7 +1710,7 @@
         <v>40</v>
       </c>
       <c r="E28" s="4">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="F28" s="4">
         <v>16</v>
@@ -1920,7 +1920,7 @@
         <v>40</v>
       </c>
       <c r="E34" s="4">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="F34" s="4">
         <v>64</v>
@@ -1990,7 +1990,7 @@
         <v>40</v>
       </c>
       <c r="E36" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>105</v>
